--- a/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
+++ b/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbit/Desktop/repositories/github/datablend/main/examples/oucru/oucru-d001/resources/outputs/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-d001\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809DA5AC-93C8-2D4F-8387-1F398C808300}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6B842A-9AF3-4A5F-9BE2-99F77B05AE9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="35000" windowHeight="21940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D001_CLINICAL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="410">
   <si>
     <t>from_name</t>
   </si>
@@ -417,18 +417,12 @@
     <t>ward</t>
   </si>
   <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
     <t>immune</t>
   </si>
   <si>
     <t>%hctchange</t>
   </si>
   <si>
-    <t>max d-d</t>
-  </si>
-  <si>
     <t>Int64</t>
   </si>
   <si>
@@ -492,15 +486,9 @@
     <t>{}</t>
   </si>
   <si>
-    <t>{1: 'V_0', 0: 'V_1'}</t>
-  </si>
-  <si>
     <t>{9: 'V_0', 2: 'V_1', 1: 'V_3'}</t>
   </si>
   <si>
-    <t>{3: 'V_0', 4: 'V_1', 1: 'V_3', 2: 'V_4', 5: 'V_5'}</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -579,9 +567,6 @@
     <t>D-D</t>
   </si>
   <si>
-    <t>severedengue</t>
-  </si>
-  <si>
     <t>bleeding</t>
   </si>
   <si>
@@ -625,9 +610,6 @@
   </si>
   <si>
     <t>aptt</t>
-  </si>
-  <si>
-    <t>d-d</t>
   </si>
   <si>
     <t>{1: 'V_0', 2: 'V_1', 3: 'V_2', 4: 'V_3'}</t>
@@ -794,24 +776,6 @@
     <t>ig_m or ig_g seroconversion  but the second specimen is equivocal (bw)</t>
   </si>
   <si>
-    <t>confirm dengue</t>
-  </si>
-  <si>
-    <t>recent
- dengue</t>
-  </si>
-  <si>
-    <t>acute
-flavirus
-infection</t>
-  </si>
-  <si>
-    <t>recent flavirus infection</t>
-  </si>
-  <si>
-    <t>no evdence of recent flavirus infection</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -841,21 +805,6 @@
     <t>{1: 'V_0', ' ': 'V_1', 3: 'V_2', 2: 'V_3'}</t>
   </si>
   <si>
-    <t>{' ': 'V_0', 2: 'V_1'}</t>
-  </si>
-  <si>
-    <t>{' ': 'V_0', 3: 'V_1'}</t>
-  </si>
-  <si>
-    <t>{' ': 'V_0', 4: 'V_1'}</t>
-  </si>
-  <si>
-    <t>{' ': 'V_0', 5: 'V_1'}</t>
-  </si>
-  <si>
-    <t>{' ': 'V_0', 9: 'V_1'}</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -1240,6 +1189,105 @@
   </si>
   <si>
     <t>echymosis</t>
+  </si>
+  <si>
+    <t>parental_fluid</t>
+  </si>
+  <si>
+    <t>parental_fluid_volume</t>
+  </si>
+  <si>
+    <t>ColumnFromValuesWidget</t>
+  </si>
+  <si>
+    <t>Expecting mL; weird values.</t>
+  </si>
+  <si>
+    <t>Missing specific date</t>
+  </si>
+  <si>
+    <t>What?</t>
+  </si>
+  <si>
+    <t>What is the translation?</t>
+  </si>
+  <si>
+    <t>{2: True}</t>
+  </si>
+  <si>
+    <t>Does not match with DateTrans/TimeTrans</t>
+  </si>
+  <si>
+    <t>ddimer</t>
+  </si>
+  <si>
+    <t>{3: 3, 4: 4, 1: 1, 2: 2, 5: 5}</t>
+  </si>
+  <si>
+    <t>pcr_dengue_serotype_notna</t>
+  </si>
+  <si>
+    <t>{9: None, 2: False, 1: True}</t>
+  </si>
+  <si>
+    <t>Ignore se we get it from D001_PCR with date?</t>
+  </si>
+  <si>
+    <t>The minimum is already contained in plt.</t>
+  </si>
+  <si>
+    <t>The minimum is already contained in hct</t>
+  </si>
+  <si>
+    <t>Compute from consecutive HCT values</t>
+  </si>
+  <si>
+    <t>See D001_CLINICAL_NOTES</t>
+  </si>
+  <si>
+    <t>dengue_severe</t>
+  </si>
+  <si>
+    <t>Only Negative</t>
+  </si>
+  <si>
+    <t>Values: 1, 2, 3, 4, 5, 9</t>
+  </si>
+  <si>
+    <t>Merge into one variable</t>
+  </si>
+  <si>
+    <t>{' ': None, 9: 'V_1'}</t>
+  </si>
+  <si>
+    <t>{' ': None, 4: 'Recent Flavivirus'}</t>
+  </si>
+  <si>
+    <t>{' ': None, 2: 'Presumptive Dengue'}</t>
+  </si>
+  <si>
+    <t>{' ': None, 5: 'Inconclusive'}</t>
+  </si>
+  <si>
+    <t>pcr_dengue_interpretation</t>
+  </si>
+  <si>
+    <t>compound igms date1 and date 2</t>
+  </si>
+  <si>
+    <t>event_ns1</t>
+  </si>
+  <si>
+    <t>No deaths</t>
+  </si>
+  <si>
+    <t>Same to first sheet!</t>
+  </si>
+  <si>
+    <t>{1: 'Lab-confirmed Dengue', ' ': None}</t>
+  </si>
+  <si>
+    <t>{' ': None, 3: 'Acute Flavivirus'}</t>
   </si>
 </sst>
 </file>
@@ -1276,15 +1324,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1307,22 +1379,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1667,29 +1771,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,13 +1826,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1735,13 +1843,13 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1749,39 +1857,39 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1789,33 +1897,33 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1823,16 +1931,16 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1840,13 +1948,13 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1854,13 +1962,13 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1868,16 +1976,16 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1885,13 +1993,13 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1899,19 +2007,19 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1919,13 +2027,13 @@
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1933,19 +2041,19 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1953,39 +2061,39 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E15" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1993,59 +2101,59 @@
         <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E17" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E18" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E19" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2053,19 +2161,19 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2073,19 +2181,19 @@
         <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E21" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2093,73 +2201,76 @@
         <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E22" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E23" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
-        <v>343</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -2167,16 +2278,16 @@
         <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2184,16 +2295,16 @@
         <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -2201,118 +2312,139 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2320,16 +2452,16 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2337,19 +2469,19 @@
         <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E36" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2357,33 +2489,33 @@
         <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E38" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2391,13 +2523,13 @@
         <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2405,13 +2537,13 @@
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2419,13 +2551,13 @@
         <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2433,67 +2565,67 @@
         <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="C44" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -2501,16 +2633,16 @@
         <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2518,13 +2650,13 @@
         <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2532,13 +2664,13 @@
         <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2546,30 +2678,33 @@
         <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C50" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2577,13 +2712,13 @@
         <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2591,33 +2726,36 @@
         <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" t="b">
+      <c r="C53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I53" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I53" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2625,16 +2763,16 @@
         <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2642,16 +2780,16 @@
         <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2659,16 +2797,16 @@
         <v>123</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2676,180 +2814,189 @@
         <v>124</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B58" t="s">
-        <v>352</v>
-      </c>
-      <c r="C58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" t="s">
-        <v>377</v>
-      </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B58" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F59" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" t="s">
-        <v>151</v>
-      </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C60" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F60" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>386</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>387</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B67" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -2861,24 +3008,24 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B68" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="K68" t="s">
         <v>45</v>
@@ -2889,6 +3036,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2901,9 +3051,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2935,15 +3085,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -2960,9 +3110,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2994,18 +3144,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3018,27 +3168,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3069,8 +3220,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3078,13 +3232,13 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3092,70 +3246,73 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -3163,422 +3320,446 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>355</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" t="s">
         <v>183</v>
       </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" t="s">
         <v>184</v>
       </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>391</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
         <v>185</v>
       </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C24" t="s">
         <v>127</v>
       </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
         <v>186</v>
       </c>
-      <c r="C17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
         <v>187</v>
       </c>
-      <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" t="s">
         <v>188</v>
       </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" t="s">
-        <v>182</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" t="s">
         <v>189</v>
       </c>
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" t="s">
-        <v>182</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>173</v>
       </c>
-      <c r="B25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>174</v>
       </c>
-      <c r="B26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" t="s">
-        <v>354</v>
-      </c>
-      <c r="C29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3595,9 +3776,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3629,29 +3810,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3664,27 +3845,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.1640625" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3716,27 +3898,30 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3744,617 +3929,641 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" t="s">
+        <v>356</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>354</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>356</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>354</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>369</v>
-      </c>
-      <c r="E8" t="s">
-        <v>370</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" t="s">
-        <v>370</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" t="s">
-        <v>369</v>
-      </c>
-      <c r="E10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>258</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D34" t="s">
+        <v>362</v>
+      </c>
+      <c r="E34" t="s">
+        <v>354</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F35" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" t="s">
         <v>243</v>
       </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s">
         <v>244</v>
       </c>
-      <c r="C20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" t="s">
-        <v>257</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
-        <v>260</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" t="s">
-        <v>261</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="s">
-        <v>264</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" t="s">
-        <v>372</v>
-      </c>
-      <c r="C30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" t="s">
-        <v>370</v>
-      </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" t="s">
-        <v>370</v>
-      </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" t="s">
-        <v>370</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C33" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" t="s">
-        <v>370</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" t="s">
-        <v>352</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>132</v>
       </c>
-      <c r="D34" t="s">
-        <v>378</v>
-      </c>
-      <c r="E34" t="s">
-        <v>370</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" t="s">
-        <v>373</v>
-      </c>
-      <c r="C35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" t="s">
-        <v>374</v>
-      </c>
-      <c r="E35" t="s">
-        <v>370</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36" t="s">
-        <v>254</v>
-      </c>
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -4362,27 +4571,27 @@
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L40" t="s">
         <v>14</v>
@@ -4402,21 +4611,21 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4448,163 +4657,163 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
         <v>129</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4617,29 +4826,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4671,358 +4880,373 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" t="s">
+        <v>363</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E14" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>364</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" t="s">
+        <v>364</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
         <v>366</v>
       </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
         <v>367</v>
       </c>
-      <c r="C7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" t="s">
-        <v>381</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>379</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" t="s">
-        <v>381</v>
-      </c>
-      <c r="E12" t="s">
-        <v>379</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" t="s">
-        <v>379</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" t="s">
-        <v>381</v>
-      </c>
-      <c r="E14" t="s">
-        <v>379</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17" t="s">
-        <v>366</v>
-      </c>
-      <c r="C17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>380</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" t="s">
-        <v>381</v>
-      </c>
-      <c r="E18" t="s">
-        <v>380</v>
-      </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B19" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>380</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" t="s">
-        <v>381</v>
-      </c>
-      <c r="E20" t="s">
-        <v>380</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B22" t="s">
-        <v>382</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>383</v>
-      </c>
       <c r="E22" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -5030,13 +5254,13 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -5044,53 +5268,53 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="K25" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="K26" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
@@ -5107,24 +5331,24 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5156,80 +5380,83 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
         <v>129</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5242,27 +5469,28 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5294,69 +5522,75 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5364,30 +5598,36 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>318</v>
+      </c>
+      <c r="E7" t="s">
+        <v>319</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -5395,83 +5635,83 @@
         <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5479,27 +5719,27 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5507,16 +5747,16 @@
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5524,13 +5764,13 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5538,13 +5778,13 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5552,47 +5792,47 @@
         <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5600,13 +5840,13 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5614,16 +5854,16 @@
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5631,13 +5871,13 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5645,19 +5885,19 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5665,19 +5905,19 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -5685,19 +5925,19 @@
         <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E27" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -5705,59 +5945,59 @@
         <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E29" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E30" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -5765,19 +6005,19 @@
         <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -5785,19 +6025,19 @@
         <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -5805,39 +6045,39 @@
         <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E33" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E34" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -5845,33 +6085,33 @@
         <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -5879,19 +6119,19 @@
         <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E37" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -5899,16 +6139,16 @@
         <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -5916,16 +6156,16 @@
         <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -5933,16 +6173,16 @@
         <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -5950,16 +6190,16 @@
         <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -5967,16 +6207,16 @@
         <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -5984,16 +6224,16 @@
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -6001,16 +6241,16 @@
         <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -6018,16 +6258,16 @@
         <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -6035,16 +6275,16 @@
         <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -6052,19 +6292,19 @@
         <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E47" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -6072,36 +6312,36 @@
         <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E49" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -6109,13 +6349,13 @@
         <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -6123,13 +6363,13 @@
         <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -6137,13 +6377,13 @@
         <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -6151,16 +6391,16 @@
         <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6168,16 +6408,16 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -6185,16 +6425,16 @@
         <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -6202,16 +6442,16 @@
         <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6219,16 +6459,16 @@
         <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -6236,13 +6476,13 @@
         <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -6250,13 +6490,13 @@
         <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -6264,13 +6504,13 @@
         <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -6278,16 +6518,16 @@
         <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -6295,13 +6535,13 @@
         <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -6309,16 +6549,16 @@
         <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -6326,16 +6566,16 @@
         <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -6343,67 +6583,70 @@
         <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C66" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" t="s">
-        <v>149</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C66" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B67" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B68" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -6411,7 +6654,7 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -6420,18 +6663,18 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -6440,24 +6683,24 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="K71" t="s">
         <v>45</v>

--- a/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
+++ b/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-d001\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\repositories\datablend\examples\oucru\oucru-d001\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6B842A-9AF3-4A5F-9BE2-99F77B05AE9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317BA17-168C-45DB-988E-2274B94F89F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D001_CLINICAL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="420">
   <si>
     <t>from_name</t>
   </si>
@@ -1194,9 +1194,6 @@
     <t>parental_fluid</t>
   </si>
   <si>
-    <t>parental_fluid_volume</t>
-  </si>
-  <si>
     <t>ColumnFromValuesWidget</t>
   </si>
   <si>
@@ -1269,9 +1266,6 @@
     <t>{' ': None, 5: 'Inconclusive'}</t>
   </si>
   <si>
-    <t>pcr_dengue_interpretation</t>
-  </si>
-  <si>
     <t>compound igms date1 and date 2</t>
   </si>
   <si>
@@ -1288,6 +1282,42 @@
   </si>
   <si>
     <t>{' ': None, 3: 'Acute Flavivirus'}</t>
+  </si>
+  <si>
+    <t>fresh_frozen_plasma_transfusion</t>
+  </si>
+  <si>
+    <t>fresh_frozen_plasma_transfusion_volume</t>
+  </si>
+  <si>
+    <t>cryoprecipitate_tran</t>
+  </si>
+  <si>
+    <t>cryoprecipitate_tranvol</t>
+  </si>
+  <si>
+    <t>mechanical_interventions_bleeding</t>
+  </si>
+  <si>
+    <t>packed_cell_vol</t>
+  </si>
+  <si>
+    <t>platelets_tran</t>
+  </si>
+  <si>
+    <t>platelets_tranvol</t>
+  </si>
+  <si>
+    <t>intubation</t>
+  </si>
+  <si>
+    <t>oxygen_mask</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>mg/dL</t>
   </si>
 </sst>
 </file>
@@ -1773,14 +1803,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.140625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
@@ -2250,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2275,7 +2305,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
         <v>128</v>
@@ -2309,7 +2339,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>413</v>
       </c>
       <c r="C28" t="s">
         <v>128</v>
@@ -2321,87 +2351,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F29" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" s="5" t="s">
+      <c r="F29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>382</v>
+      <c r="F32" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2409,7 +2439,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>101</v>
+        <v>414</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>128</v>
@@ -2421,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2429,7 +2459,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>415</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>128</v>
@@ -2441,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2515,113 +2545,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F39" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="F40" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="F41" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="F42" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="B43" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="F43" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="F44" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F45" s="6" t="b">
+      <c r="B45" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F45" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2701,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2752,7 +2782,7 @@
         <v>335</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2840,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2848,7 +2878,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>128</v>
@@ -2871,7 +2901,7 @@
         <v>128</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F60" s="6" t="b">
         <v>0</v>
@@ -2972,13 +3002,13 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
+        <v>385</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
         <v>386</v>
-      </c>
-      <c r="C66" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" t="s">
-        <v>387</v>
       </c>
       <c r="E66" t="s">
         <v>319</v>
@@ -3049,7 +3079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3170,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3300,7 +3330,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>128</v>
@@ -3337,7 +3367,7 @@
         <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
         <v>128</v>
@@ -3372,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3420,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3440,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3477,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3494,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3534,7 +3564,7 @@
         <v>337</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3713,7 +3743,9 @@
       <c r="F27" t="b">
         <v>0</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3731,7 +3763,9 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3749,14 +3783,16 @@
       <c r="F29" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" t="s">
         <v>132</v>
@@ -3847,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4269,19 +4305,19 @@
         <v>212</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4289,19 +4325,19 @@
         <v>213</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4309,19 +4345,19 @@
         <v>214</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4329,19 +4365,19 @@
         <v>215</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4349,19 +4385,19 @@
         <v>216</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4375,7 +4411,7 @@
         <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4395,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4518,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4828,7 +4864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -4962,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4982,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4999,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5019,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -5439,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5471,7 +5507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -5545,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6609,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">

--- a/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
+++ b/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\repositories\datablend\examples\oucru\oucru-d001\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-d001\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317BA17-168C-45DB-988E-2274B94F89F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623980A7-03C0-4875-A926-3DF96754B0D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25650" yWindow="840" windowWidth="19575" windowHeight="16470" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D001_CLINICAL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="420">
   <si>
     <t>from_name</t>
   </si>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t>petechiae</t>
-  </si>
-  <si>
-    <t>echymose</t>
   </si>
   <si>
     <t>hematoma</t>
@@ -1191,9 +1188,6 @@
     <t>echymosis</t>
   </si>
   <si>
-    <t>parental_fluid</t>
-  </si>
-  <si>
     <t>ColumnFromValuesWidget</t>
   </si>
   <si>
@@ -1318,6 +1312,12 @@
   </si>
   <si>
     <t>mg/dL</t>
+  </si>
+  <si>
+    <t>date_onset</t>
+  </si>
+  <si>
+    <t>event_onset</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1446,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1801,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,7 +1832,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1856,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1873,7 +1893,7 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1887,16 +1907,16 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1904,16 +1924,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
         <v>317</v>
       </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>318</v>
-      </c>
-      <c r="E4" t="s">
-        <v>319</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1927,13 +1947,13 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1941,16 +1961,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1961,10 +1981,10 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1978,7 +1998,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1992,7 +2012,7 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2006,10 +2026,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2023,7 +2043,7 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2037,16 +2057,16 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>319</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2057,7 +2077,7 @@
         <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2071,13 +2091,13 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2091,13 +2111,13 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2108,16 +2128,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2128,16 +2148,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2148,16 +2168,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2168,16 +2188,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2188,16 +2208,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2208,16 +2228,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2228,16 +2248,16 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2248,16 +2268,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2268,19 +2288,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2288,13 +2308,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2305,13 +2325,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2322,13 +2342,13 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2339,13 +2359,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2356,22 +2376,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F29" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2379,19 +2396,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2399,19 +2416,19 @@
         <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2419,19 +2436,19 @@
         <v>40</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2439,19 +2456,19 @@
         <v>41</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F33" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2459,19 +2476,19 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2479,13 +2496,13 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2496,16 +2513,16 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2516,10 +2533,10 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2530,16 +2547,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2550,10 +2567,10 @@
         <v>47</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
@@ -2564,10 +2581,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
@@ -2578,10 +2595,10 @@
         <v>49</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
@@ -2592,13 +2609,13 @@
         <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
@@ -2609,13 +2626,13 @@
         <v>51</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
@@ -2626,13 +2643,13 @@
         <v>52</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
@@ -2643,13 +2660,13 @@
         <v>53</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
@@ -2660,13 +2677,13 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2677,10 +2694,10 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2691,10 +2708,10 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2705,10 +2722,10 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2719,19 +2736,19 @@
         <v>58</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2739,10 +2756,10 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2753,16 +2770,16 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2770,19 +2787,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F53" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2790,13 +2807,13 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -2807,13 +2824,13 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2824,13 +2841,13 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2841,13 +2858,13 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -2858,19 +2875,19 @@
         <v>66</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F58" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2878,13 +2895,13 @@
         <v>67</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F59" s="9" t="b">
         <v>0</v>
@@ -2895,13 +2912,13 @@
         <v>68</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F60" s="6" t="b">
         <v>0</v>
@@ -2912,10 +2929,10 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2926,19 +2943,19 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2946,19 +2963,19 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -2966,13 +2983,13 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -2984,13 +3001,13 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3002,16 +3019,16 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3020,13 +3037,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -3038,24 +3055,24 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K68" t="s">
         <v>45</v>
@@ -3064,11 +3081,37 @@
         <v>14</v>
       </c>
     </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>418</v>
+      </c>
+      <c r="B69" t="s">
+        <v>418</v>
+      </c>
+      <c r="C69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>419</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69">
+  <conditionalFormatting sqref="L69">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3079,7 +3122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3117,13 +3162,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3176,16 +3221,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>151</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3251,7 +3296,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3262,7 +3307,7 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3276,16 +3321,16 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3293,16 +3338,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
         <v>317</v>
       </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s">
-        <v>318</v>
-      </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3310,19 +3355,19 @@
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3330,13 +3375,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>0</v>
@@ -3347,16 +3392,16 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3364,19 +3409,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3384,39 +3429,39 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="5" t="b">
         <v>0</v>
@@ -3424,13 +3469,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3438,76 +3483,76 @@
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3515,287 +3560,287 @@
         <v>69</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F18" s="9" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3848,13 +3893,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3862,13 +3907,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3934,24 +3979,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3965,13 +4010,13 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -3979,16 +4024,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3996,16 +4041,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4013,13 +4058,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4027,16 +4072,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4044,19 +4089,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" t="s">
         <v>353</v>
-      </c>
-      <c r="E8" t="s">
-        <v>354</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4064,16 +4109,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4081,19 +4126,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
         <v>352</v>
       </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>353</v>
-      </c>
-      <c r="E10" t="s">
-        <v>354</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4101,13 +4146,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4115,16 +4160,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4132,16 +4177,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4149,16 +4194,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4166,16 +4211,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4183,16 +4228,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4200,16 +4245,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4217,16 +4262,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4234,16 +4279,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4251,16 +4296,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4268,16 +4313,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4285,16 +4330,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4302,116 +4347,116 @@
     </row>
     <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4419,116 +4464,116 @@
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -4536,36 +4581,36 @@
     </row>
     <row r="35" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F35" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -4573,13 +4618,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -4590,10 +4635,10 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -4607,7 +4652,7 @@
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -4615,19 +4660,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s">
         <v>14</v>
@@ -4695,13 +4740,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4709,16 +4754,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>259</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4726,13 +4771,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4740,116 +4785,116 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4916,24 +4961,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4941,13 +4986,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4955,16 +5000,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4972,13 +5017,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4986,87 +5031,87 @@
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5074,16 +5119,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5091,19 +5136,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5111,16 +5156,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5128,19 +5173,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5148,13 +5193,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5162,13 +5207,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5176,16 +5221,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5193,19 +5238,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5213,16 +5258,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5230,19 +5275,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5250,13 +5295,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5264,19 +5309,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
         <v>366</v>
       </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>367</v>
-      </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5290,7 +5335,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -5304,7 +5349,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -5312,22 +5357,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
@@ -5335,22 +5380,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
@@ -5418,13 +5463,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5432,16 +5477,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5449,13 +5494,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5463,36 +5508,36 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5505,10 +5550,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,7 +5561,7 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -5558,13 +5603,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5575,24 +5620,24 @@
         <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5600,13 +5645,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5614,13 +5659,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5634,10 +5679,10 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5648,16 +5693,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
         <v>317</v>
       </c>
-      <c r="C7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>318</v>
-      </c>
-      <c r="E7" t="s">
-        <v>319</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5668,10 +5713,10 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5679,13 +5724,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5693,13 +5738,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5710,10 +5755,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5721,13 +5766,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5735,13 +5780,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5755,7 +5800,7 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -5763,13 +5808,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5783,10 +5828,10 @@
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5800,7 +5845,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5814,7 +5859,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5828,10 +5873,10 @@
         <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5839,13 +5884,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5853,16 +5898,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5876,7 +5921,7 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5890,13 +5935,13 @@
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5907,7 +5952,7 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -5921,13 +5966,13 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5941,13 +5986,13 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -5958,16 +6003,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>375</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -5978,16 +6023,16 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -5998,16 +6043,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -6018,16 +6063,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -6038,16 +6083,16 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -6058,16 +6103,16 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6078,16 +6123,16 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -6098,16 +6143,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -6118,13 +6163,13 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -6135,13 +6180,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -6152,16 +6197,16 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6172,13 +6217,13 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6189,13 +6234,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6206,13 +6251,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6223,13 +6268,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -6240,13 +6285,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6257,13 +6302,13 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -6274,13 +6319,13 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6291,13 +6336,13 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -6308,13 +6353,13 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -6325,16 +6370,16 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -6345,13 +6390,13 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6362,16 +6407,16 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -6382,10 +6427,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -6396,10 +6441,10 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -6410,10 +6455,10 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -6424,13 +6469,13 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -6441,13 +6486,13 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -6458,13 +6503,13 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -6475,13 +6520,13 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -6492,13 +6537,13 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -6509,10 +6554,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -6523,10 +6568,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -6537,10 +6582,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -6551,13 +6596,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -6568,10 +6613,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -6582,13 +6627,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6599,13 +6644,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -6616,13 +6661,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -6633,33 +6678,33 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F66" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -6667,16 +6712,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -6690,7 +6735,7 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -6699,18 +6744,18 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -6719,30 +6764,53 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K71" t="s">
         <v>45</v>
       </c>
       <c r="L71" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" t="s">
+        <v>418</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>419</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
+++ b/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-d001\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623980A7-03C0-4875-A926-3DF96754B0D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B064F0-213F-414D-8070-3D6AB9E2960D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25650" yWindow="840" windowWidth="19575" windowHeight="16470" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D001_CLINICAL" sheetId="1" r:id="rId1"/>
@@ -773,9 +773,6 @@
     <t>ig_m or ig_g seroconversion  but the second specimen is equivocal (bw)</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>final serology code</t>
   </si>
   <si>
@@ -1158,9 +1155,6 @@
     <t>serology_interpretation</t>
   </si>
   <si>
-    <t>{9: 'Inconclusive', 2: 'Probably secondary', 1: 'Probably primary'}</t>
-  </si>
-  <si>
     <t>event_serology</t>
   </si>
   <si>
@@ -1248,9 +1242,6 @@
     <t>Merge into one variable</t>
   </si>
   <si>
-    <t>{' ': None, 9: 'V_1'}</t>
-  </si>
-  <si>
     <t>{' ': None, 4: 'Recent Flavivirus'}</t>
   </si>
   <si>
@@ -1318,6 +1309,15 @@
   </si>
   <si>
     <t>event_onset</t>
+  </si>
+  <si>
+    <t>{9: 'Inconclusive', 2: 'Secondary', 1: 'Primary'}</t>
+  </si>
+  <si>
+    <t>dengue_serology_interpretation</t>
+  </si>
+  <si>
+    <t>{' ': None, 9: None}</t>
   </si>
 </sst>
 </file>
@@ -1446,17 +1446,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1876,10 +1866,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>148</v>
@@ -1910,13 +1900,13 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1924,16 +1914,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
         <v>316</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>317</v>
-      </c>
-      <c r="E4" t="s">
-        <v>318</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1953,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1961,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
         <v>128</v>
@@ -1970,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2060,13 +2050,13 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>318</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2094,10 +2084,10 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2114,10 +2104,10 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2128,16 +2118,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C16" t="s">
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2154,10 +2144,10 @@
         <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2168,16 +2158,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2188,16 +2178,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2214,10 +2204,10 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2234,10 +2224,10 @@
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2254,10 +2244,10 @@
         <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2268,16 +2258,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2288,7 +2278,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>127</v>
@@ -2300,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2308,13 +2298,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2325,13 +2315,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C26" t="s">
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2359,7 +2349,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C28" t="s">
         <v>127</v>
@@ -2376,19 +2366,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2396,7 +2386,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>127</v>
@@ -2408,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2406,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>127</v>
@@ -2428,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2436,7 +2426,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>127</v>
@@ -2448,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2456,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>127</v>
@@ -2468,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2476,7 +2466,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>127</v>
@@ -2488,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2519,10 +2509,10 @@
         <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2547,16 +2537,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
         <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2626,7 +2616,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>127</v>
@@ -2660,13 +2650,13 @@
         <v>53</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
@@ -2748,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2779,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2796,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2875,19 +2865,19 @@
         <v>66</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F58" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2895,13 +2885,13 @@
         <v>67</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F59" s="9" t="b">
         <v>0</v>
@@ -2918,7 +2908,7 @@
         <v>127</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F60" s="6" t="b">
         <v>0</v>
@@ -2949,13 +2939,13 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2969,13 +2959,13 @@
         <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -2989,7 +2979,7 @@
         <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3001,13 +2991,13 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C65" t="s">
         <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3019,16 +3009,16 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s">
         <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E66" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3037,10 +3027,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C67" t="s">
         <v>128</v>
@@ -3055,15 +3045,15 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C68" t="s">
         <v>128</v>
@@ -3072,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K68" t="s">
         <v>45</v>
@@ -3083,10 +3073,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B69" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C69" t="s">
         <v>128</v>
@@ -3095,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
@@ -3106,7 +3096,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
@@ -3330,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3338,13 +3328,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
         <v>316</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>317</v>
       </c>
       <c r="E4" t="s">
         <v>176</v>
@@ -3358,7 +3348,7 @@
         <v>151</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>131</v>
@@ -3367,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3375,13 +3365,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>0</v>
@@ -3398,7 +3388,7 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>176</v>
@@ -3412,13 +3402,13 @@
         <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>176</v>
@@ -3438,7 +3428,7 @@
         <v>127</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>176</v>
@@ -3447,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3495,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3515,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3523,7 +3513,7 @@
         <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
         <v>130</v>
@@ -3535,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3552,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3569,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3589,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3606,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3617,7 +3607,7 @@
         <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
         <v>130</v>
@@ -3629,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3637,7 +3627,7 @@
         <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C20" t="s">
         <v>130</v>
@@ -3649,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3657,7 +3647,7 @@
         <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C21" t="s">
         <v>130</v>
@@ -3669,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3689,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3709,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3729,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3749,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3769,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3789,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3809,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3817,7 +3807,7 @@
         <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
@@ -3829,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3837,7 +3827,7 @@
         <v>173</v>
       </c>
       <c r="B30" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C30" t="s">
         <v>131</v>
@@ -3928,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3979,10 +3969,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>148</v>
@@ -4016,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4024,16 +4014,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4075,13 +4065,13 @@
         <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
         <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4092,16 +4082,16 @@
         <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
       </c>
       <c r="D8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" t="s">
         <v>352</v>
-      </c>
-      <c r="E8" t="s">
-        <v>353</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4112,13 +4102,13 @@
         <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C9" t="s">
         <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4129,16 +4119,16 @@
         <v>198</v>
       </c>
       <c r="B10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
         <v>351</v>
       </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>352</v>
-      </c>
-      <c r="E10" t="s">
-        <v>353</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4169,7 +4159,7 @@
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4186,7 +4176,7 @@
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4203,7 +4193,7 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4220,7 +4210,7 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4237,7 +4227,7 @@
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4254,7 +4244,7 @@
         <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4271,7 +4261,7 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4288,7 +4278,7 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4305,7 +4295,7 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4322,7 +4312,7 @@
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4350,19 +4340,19 @@
         <v>211</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4370,19 +4360,19 @@
         <v>212</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4390,19 +4380,19 @@
         <v>213</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4410,19 +4400,19 @@
         <v>214</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4430,19 +4420,19 @@
         <v>215</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4450,13 +4440,13 @@
         <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>418</v>
       </c>
       <c r="C28" t="s">
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4467,7 +4457,7 @@
         <v>217</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>131</v>
@@ -4476,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4484,19 +4474,19 @@
         <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C30" t="s">
         <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -4504,19 +4494,19 @@
         <v>219</v>
       </c>
       <c r="B31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C31" t="s">
         <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -4524,19 +4514,19 @@
         <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C32" t="s">
         <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4544,19 +4534,19 @@
         <v>221</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C33" t="s">
         <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4564,16 +4554,16 @@
         <v>222</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C34" t="s">
         <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -4584,22 +4574,22 @@
         <v>223</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>357</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F35" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4607,7 +4597,7 @@
         <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -4621,7 +4611,7 @@
         <v>225</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
         <v>131</v>
@@ -4635,7 +4625,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s">
         <v>128</v>
@@ -4660,10 +4650,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C40" t="s">
         <v>128</v>
@@ -4740,10 +4730,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>129</v>
@@ -4754,16 +4744,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
         <v>257</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>258</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4771,7 +4761,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -4785,10 +4775,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
@@ -4797,87 +4787,87 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
         <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
         <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C8" t="s">
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
         <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4885,16 +4875,16 @@
         <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4910,7 +4900,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4961,10 +4951,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>148</v>
@@ -4972,10 +4962,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -5034,7 +5024,7 @@
         <v>195</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>130</v>
@@ -5043,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5051,19 +5041,19 @@
         <v>196</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5071,7 +5061,7 @@
         <v>197</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>131</v>
@@ -5080,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5088,27 +5078,27 @@
         <v>198</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
         <v>131</v>
@@ -5119,16 +5109,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5136,19 +5126,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5156,16 +5146,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C13" t="s">
         <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5173,19 +5163,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5193,10 +5183,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
         <v>130</v>
@@ -5207,10 +5197,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
         <v>131</v>
@@ -5221,16 +5211,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" t="s">
         <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5238,19 +5228,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5258,16 +5248,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C19" t="s">
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5275,19 +5265,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C20" t="s">
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5295,10 +5285,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
         <v>130</v>
@@ -5309,19 +5299,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="E22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5357,10 +5347,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C25" t="s">
         <v>128</v>
@@ -5369,10 +5359,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
@@ -5380,10 +5370,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C26" t="s">
         <v>128</v>
@@ -5392,10 +5382,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
@@ -5463,10 +5453,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
         <v>129</v>
@@ -5477,16 +5467,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5494,7 +5484,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5508,10 +5498,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
@@ -5520,24 +5510,24 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
         <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5552,7 +5542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
@@ -5603,10 +5593,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>148</v>
@@ -5626,15 +5616,15 @@
         <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
         <v>126</v>
@@ -5645,10 +5635,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
         <v>129</v>
@@ -5659,10 +5649,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
         <v>129</v>
@@ -5682,7 +5672,7 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5693,16 +5683,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
         <v>316</v>
       </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>317</v>
-      </c>
-      <c r="E7" t="s">
-        <v>318</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5724,10 +5714,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>129</v>
@@ -5738,10 +5728,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -5755,7 +5745,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -5766,10 +5756,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -5780,10 +5770,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -5808,10 +5798,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -5884,10 +5874,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
         <v>126</v>
@@ -5898,16 +5888,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5941,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5969,10 +5959,10 @@
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5989,10 +5979,10 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6003,16 +5993,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C27" t="s">
         <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6029,10 +6019,10 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6043,16 +6033,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -6063,16 +6053,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
         <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -6089,10 +6079,10 @@
         <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -6109,10 +6099,10 @@
         <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6129,10 +6119,10 @@
         <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -6143,16 +6133,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -6180,13 +6170,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
         <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -6203,10 +6193,10 @@
         <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6223,7 +6213,7 @@
         <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6257,7 +6247,7 @@
         <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6291,7 +6281,7 @@
         <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6325,7 +6315,7 @@
         <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6376,10 +6366,10 @@
         <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -6396,7 +6386,7 @@
         <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6407,16 +6397,16 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C49" t="s">
         <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -6633,7 +6623,7 @@
         <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6650,7 +6640,7 @@
         <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -6667,7 +6657,7 @@
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -6690,21 +6680,21 @@
         <v>0</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C67" t="s">
         <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -6712,16 +6702,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C68" t="s">
         <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -6744,15 +6734,15 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C70" t="s">
         <v>128</v>
@@ -6764,15 +6754,15 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C71" t="s">
         <v>128</v>
@@ -6781,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K71" t="s">
         <v>45</v>
@@ -6792,10 +6782,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B72" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C72" t="s">
         <v>128</v>
@@ -6804,7 +6794,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K72" t="s">
         <v>19</v>

--- a/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
+++ b/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-d001\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B064F0-213F-414D-8070-3D6AB9E2960D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC082E44-3497-4A8A-B084-C2D59C1F154D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24555" yWindow="645" windowWidth="23730" windowHeight="16470" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D001_CLINICAL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="419">
   <si>
     <t>from_name</t>
   </si>
@@ -483,9 +483,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>{9: 'V_0', 2: 'V_1', 1: 'V_3'}</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
   </si>
   <si>
     <t>min_plt</t>
-  </si>
-  <si>
-    <t>hemoglobin</t>
   </si>
   <si>
     <t>albumin</t>
@@ -1179,9 +1173,6 @@
     <t>haematocrit_percent</t>
   </si>
   <si>
-    <t>echymosis</t>
-  </si>
-  <si>
     <t>ColumnFromValuesWidget</t>
   </si>
   <si>
@@ -1281,9 +1272,6 @@
     <t>cryoprecipitate_tranvol</t>
   </si>
   <si>
-    <t>mechanical_interventions_bleeding</t>
-  </si>
-  <si>
     <t>packed_cell_vol</t>
   </si>
   <si>
@@ -1293,9 +1281,6 @@
     <t>platelets_tranvol</t>
   </si>
   <si>
-    <t>intubation</t>
-  </si>
-  <si>
     <t>oxygen_mask</t>
   </si>
   <si>
@@ -1318,6 +1303,18 @@
   </si>
   <si>
     <t>{' ': None, 9: None}</t>
+  </si>
+  <si>
+    <t>ecchymosis</t>
+  </si>
+  <si>
+    <t>haemoglobin</t>
+  </si>
+  <si>
+    <t>day_from_illness</t>
+  </si>
+  <si>
+    <t>diagnostic_admission</t>
   </si>
 </sst>
 </file>
@@ -1813,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,13 +1863,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1900,13 +1897,13 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1914,16 +1911,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" t="s">
         <v>315</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E4" t="s">
-        <v>317</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1943,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1951,7 +1948,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>128</v>
@@ -1960,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2030,10 +2027,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="C11" t="s">
         <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2064,10 +2064,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="C13" t="s">
         <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>315</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2084,10 +2087,10 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2104,10 +2107,10 @@
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2118,16 +2121,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2144,10 +2147,10 @@
         <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2158,16 +2161,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2178,16 +2181,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2204,10 +2207,10 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2224,10 +2227,10 @@
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2244,10 +2247,10 @@
         <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2258,16 +2261,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C23" t="s">
         <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2278,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>127</v>
@@ -2290,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2298,13 +2301,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2315,13 +2318,16 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>407</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+      <c r="E26" t="s">
+        <v>315</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2338,7 +2344,10 @@
         <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>319</v>
+      </c>
+      <c r="E27" t="s">
+        <v>315</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2349,7 +2358,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C28" t="s">
         <v>127</v>
@@ -2366,19 +2375,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F29" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2386,7 +2395,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>127</v>
@@ -2398,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2406,7 +2415,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>127</v>
@@ -2418,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2426,7 +2435,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>127</v>
@@ -2438,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2446,7 +2455,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>127</v>
@@ -2458,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2466,7 +2475,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>127</v>
@@ -2478,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2509,10 +2518,10 @@
         <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E36" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2537,16 +2546,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C38" t="s">
         <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2605,7 +2614,10 @@
         <v>127</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>132</v>
+        <v>368</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
@@ -2616,13 +2628,16 @@
         <v>51</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>141</v>
+        <v>368</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
@@ -2639,7 +2654,10 @@
         <v>127</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>141</v>
+        <v>368</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
@@ -2650,13 +2668,16 @@
         <v>53</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>411</v>
+        <v>111</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
@@ -2717,6 +2738,9 @@
       <c r="C49" t="s">
         <v>129</v>
       </c>
+      <c r="E49" t="s">
+        <v>315</v>
+      </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
@@ -2738,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2769,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2786,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2826,20 +2850,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F56" t="b">
+      <c r="F56" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2865,19 +2889,19 @@
         <v>66</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F58" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2885,13 +2909,13 @@
         <v>67</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F59" s="9" t="b">
         <v>0</v>
@@ -2908,7 +2932,7 @@
         <v>127</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F60" s="6" t="b">
         <v>0</v>
@@ -2933,19 +2957,19 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2953,19 +2977,19 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
         <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -2973,13 +2997,13 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
         <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -2991,13 +3015,13 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C65" t="s">
         <v>130</v>
       </c>
       <c r="E65" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3009,16 +3033,16 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s">
         <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E66" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3027,10 +3051,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B67" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C67" t="s">
         <v>128</v>
@@ -3045,15 +3069,15 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C68" t="s">
         <v>128</v>
@@ -3062,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K68" t="s">
         <v>45</v>
@@ -3073,10 +3097,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C69" t="s">
         <v>128</v>
@@ -3085,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
@@ -3152,10 +3176,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>129</v>
@@ -3211,16 +3235,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
         <v>149</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>150</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3235,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,7 +3310,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3314,13 +3338,13 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3328,16 +3352,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3345,10 +3369,10 @@
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>131</v>
@@ -3357,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3365,13 +3389,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>0</v>
@@ -3388,10 +3412,10 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3399,19 +3423,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
         <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3419,39 +3443,42 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="F10" s="5" t="b">
         <v>0</v>
@@ -3459,10 +3486,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -3473,10 +3500,10 @@
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>126</v>
@@ -3485,55 +3512,55 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C14" t="s">
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>130</v>
@@ -3542,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3559,35 +3586,35 @@
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>131</v>
@@ -3596,241 +3623,244 @@
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C20" t="s">
         <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C21" t="s">
         <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C25" t="s">
         <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
         <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C30" t="s">
         <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3883,10 +3913,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>129</v>
@@ -3897,10 +3927,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
         <v>129</v>
@@ -3918,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,18 +3999,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -4006,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4014,16 +4044,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4031,10 +4061,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
         <v>127</v>
@@ -4048,10 +4078,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>417</v>
       </c>
       <c r="C6" t="s">
         <v>126</v>
@@ -4062,16 +4092,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
         <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4079,19 +4109,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
         <v>349</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>351</v>
-      </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4099,16 +4129,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
         <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4116,19 +4146,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E10" t="s">
         <v>350</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E10" t="s">
-        <v>352</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4136,10 +4166,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -4150,16 +4180,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4167,16 +4197,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4184,16 +4214,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4201,16 +4231,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4218,16 +4248,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4235,16 +4265,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
         <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4252,16 +4282,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4269,16 +4299,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4286,16 +4316,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4303,16 +4333,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4320,10 +4350,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
@@ -4337,116 +4367,116 @@
     </row>
     <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C28" t="s">
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4454,10 +4484,10 @@
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>131</v>
@@ -4466,104 +4496,104 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
         <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C31" t="s">
         <v>131</v>
       </c>
       <c r="E31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C32" t="s">
         <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
         <v>131</v>
       </c>
       <c r="E33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C34" t="s">
         <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -4571,33 +4601,33 @@
     </row>
     <row r="35" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F35" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C36" t="s">
         <v>131</v>
@@ -4608,10 +4638,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C37" t="s">
         <v>131</v>
@@ -4625,7 +4655,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C38" t="s">
         <v>128</v>
@@ -4650,10 +4680,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C40" t="s">
         <v>128</v>
@@ -4662,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s">
         <v>14</v>
@@ -4730,10 +4760,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>129</v>
@@ -4744,16 +4774,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4761,7 +4791,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -4775,10 +4805,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
@@ -4787,104 +4817,104 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
         <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C7" t="s">
         <v>131</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4899,7 +4929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4951,21 +4981,21 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -4976,7 +5006,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -4990,10 +5020,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
@@ -5007,10 +5037,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
         <v>126</v>
@@ -5021,10 +5051,10 @@
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>130</v>
@@ -5033,35 +5063,35 @@
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>131</v>
@@ -5070,35 +5100,35 @@
         <v>0</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>131</v>
@@ -5109,16 +5139,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5126,19 +5156,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5146,16 +5176,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s">
         <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5163,19 +5193,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5183,10 +5213,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
         <v>130</v>
@@ -5197,10 +5227,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
         <v>131</v>
@@ -5211,16 +5241,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C17" t="s">
         <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5228,19 +5258,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C18" t="s">
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5248,16 +5278,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
         <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5265,19 +5295,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C20" t="s">
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5285,10 +5315,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
         <v>130</v>
@@ -5299,19 +5329,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C22" t="s">
         <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5347,10 +5377,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C25" t="s">
         <v>128</v>
@@ -5359,10 +5389,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
@@ -5370,10 +5400,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C26" t="s">
         <v>128</v>
@@ -5382,10 +5412,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
@@ -5453,10 +5483,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>129</v>
@@ -5467,16 +5497,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5484,7 +5514,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5498,10 +5528,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
         <v>128</v>
@@ -5510,24 +5540,24 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5542,8 +5572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,13 +5623,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5616,15 +5646,15 @@
         <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
         <v>126</v>
@@ -5635,10 +5665,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
         <v>129</v>
@@ -5649,10 +5679,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
         <v>129</v>
@@ -5672,7 +5702,7 @@
         <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5683,16 +5713,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
         <v>315</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" t="s">
-        <v>317</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5708,33 +5738,42 @@
       <c r="C8" t="s">
         <v>129</v>
       </c>
+      <c r="E8" t="s">
+        <v>315</v>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
         <v>129</v>
       </c>
+      <c r="E9" t="s">
+        <v>315</v>
+      </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>315</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5745,7 +5784,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
@@ -5756,10 +5795,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
         <v>129</v>
@@ -5770,10 +5809,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -5798,10 +5837,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -5874,10 +5913,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C20" t="s">
         <v>126</v>
@@ -5888,16 +5927,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5931,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5959,10 +5998,10 @@
         <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -5979,10 +6018,10 @@
         <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -5993,16 +6032,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
         <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6019,10 +6058,10 @@
         <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6033,16 +6072,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -6053,16 +6092,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
         <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -6079,10 +6118,10 @@
         <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -6099,10 +6138,10 @@
         <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E32" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6119,10 +6158,10 @@
         <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -6133,16 +6172,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C34" t="s">
         <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -6170,13 +6209,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
         <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -6193,10 +6232,10 @@
         <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E37" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6213,7 +6252,7 @@
         <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6247,7 +6286,7 @@
         <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6281,7 +6320,7 @@
         <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6315,7 +6354,7 @@
         <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6366,10 +6405,10 @@
         <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E47" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -6386,7 +6425,7 @@
         <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6397,16 +6436,16 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C49" t="s">
         <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -6623,7 +6662,7 @@
         <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6640,7 +6679,7 @@
         <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -6657,7 +6696,7 @@
         <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -6680,21 +6719,21 @@
         <v>0</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B67" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C67" t="s">
         <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -6702,16 +6741,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B68" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C68" t="s">
         <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -6734,15 +6773,15 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C70" t="s">
         <v>128</v>
@@ -6754,15 +6793,15 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C71" t="s">
         <v>128</v>
@@ -6771,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K71" t="s">
         <v>45</v>
@@ -6782,10 +6821,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B72" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C72" t="s">
         <v>128</v>
@@ -6794,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K72" t="s">
         <v>19</v>

--- a/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
+++ b/examples/oucru/oucru-d001/resources/outputs/templates/ccfgs_d001_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-d001\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC082E44-3497-4A8A-B084-C2D59C1F154D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504A9A2B-D916-494E-85E6-B9AC120FEEDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24555" yWindow="645" windowWidth="23730" windowHeight="16470" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="23730" windowHeight="16470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D001_CLINICAL" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="418">
   <si>
     <t>from_name</t>
   </si>
@@ -414,9 +414,6 @@
     <t>ward</t>
   </si>
   <si>
-    <t>immune</t>
-  </si>
-  <si>
     <t>%hctchange</t>
   </si>
   <si>
@@ -562,9 +559,6 @@
   </si>
   <si>
     <t>bleeding</t>
-  </si>
-  <si>
-    <t>immune status</t>
   </si>
   <si>
     <t>date_access</t>
@@ -1314,7 +1308,10 @@
     <t>day_from_illness</t>
   </si>
   <si>
-    <t>diagnostic_admission</t>
+    <t>diagnosis_admission</t>
+  </si>
+  <si>
+    <t>immune_status</t>
   </si>
 </sst>
 </file>
@@ -1810,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,13 +1860,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1880,7 +1877,7 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1894,16 +1891,16 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1911,16 +1908,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E4" t="s">
-        <v>315</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1934,13 +1931,13 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1948,16 +1945,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1968,10 +1965,10 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1985,7 +1982,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1999,7 +1996,7 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -2013,10 +2010,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2027,10 +2024,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
         <v>77</v>
@@ -2047,16 +2044,16 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2064,13 +2061,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -2084,13 +2081,13 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -2104,13 +2101,13 @@
         <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2121,16 +2118,16 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2144,13 +2141,13 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2161,16 +2158,16 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2181,16 +2178,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2204,13 +2201,13 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2224,13 +2221,13 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2244,13 +2241,13 @@
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2261,16 +2258,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -2281,19 +2278,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2301,13 +2298,13 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -2321,13 +2318,13 @@
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -2341,13 +2338,13 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -2358,13 +2355,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -2375,19 +2372,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F29" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2395,19 +2392,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F30" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2415,19 +2412,19 @@
         <v>39</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2435,19 +2432,19 @@
         <v>40</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2455,19 +2452,19 @@
         <v>41</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2475,19 +2472,19 @@
         <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2498,10 +2495,10 @@
         <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2515,13 +2512,13 @@
         <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2535,7 +2532,7 @@
         <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2546,16 +2543,16 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2569,7 +2566,7 @@
         <v>105</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="7" t="b">
         <v>0</v>
@@ -2583,7 +2580,7 @@
         <v>106</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" s="7" t="b">
         <v>0</v>
@@ -2597,7 +2594,7 @@
         <v>107</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="7" t="b">
         <v>0</v>
@@ -2611,13 +2608,13 @@
         <v>108</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F42" s="7" t="b">
         <v>0</v>
@@ -2628,16 +2625,16 @@
         <v>51</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F43" s="7" t="b">
         <v>0</v>
@@ -2651,13 +2648,13 @@
         <v>110</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F44" s="7" t="b">
         <v>0</v>
@@ -2671,13 +2668,13 @@
         <v>111</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F45" s="7" t="b">
         <v>0</v>
@@ -2691,10 +2688,10 @@
         <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2708,7 +2705,7 @@
         <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2722,7 +2719,7 @@
         <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2736,10 +2733,10 @@
         <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2753,16 +2750,16 @@
         <v>116</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2773,7 +2770,7 @@
         <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2787,13 +2784,13 @@
         <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2804,16 +2801,16 @@
         <v>119</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F53" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2824,10 +2821,10 @@
         <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -2841,10 +2838,10 @@
         <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2858,10 +2855,10 @@
         <v>122</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F56" s="5" t="b">
         <v>0</v>
@@ -2875,10 +2872,10 @@
         <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -2889,19 +2886,19 @@
         <v>66</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F58" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2909,13 +2906,13 @@
         <v>67</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F59" s="9" t="b">
         <v>0</v>
@@ -2926,13 +2923,16 @@
         <v>68</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>124</v>
+        <v>417</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="F60" s="6" t="b">
         <v>0</v>
@@ -2943,10 +2943,10 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2957,19 +2957,19 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2977,19 +2977,19 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -2997,13 +2997,13 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -3015,13 +3015,13 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -3033,16 +3033,16 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E66" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -3051,13 +3051,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B67" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -3069,24 +3069,24 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K68" t="s">
         <v>45</v>
@@ -3097,19 +3097,19 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B69" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
@@ -3176,13 +3176,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3197,7 +3197,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3235,16 +3237,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>147</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>149</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3259,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3321,7 +3323,7 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3335,16 +3337,16 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3352,16 +3354,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3369,19 +3371,19 @@
     </row>
     <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3389,13 +3391,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>0</v>
@@ -3409,13 +3411,13 @@
         <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3423,19 +3425,19 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3443,42 +3445,42 @@
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="F9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>417</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="5" t="b">
         <v>0</v>
@@ -3486,13 +3488,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3500,76 +3502,76 @@
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3577,290 +3579,290 @@
         <v>69</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="9" t="b">
         <v>0</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="9" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3913,13 +3915,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3927,13 +3929,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3999,24 +4001,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4030,13 +4032,13 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4044,16 +4046,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4061,16 +4063,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -4078,13 +4080,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4092,16 +4094,16 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4109,19 +4111,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
         <v>347</v>
       </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>349</v>
-      </c>
       <c r="E8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4129,16 +4131,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4146,19 +4148,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" t="s">
         <v>348</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
-        <v>349</v>
-      </c>
-      <c r="E10" t="s">
-        <v>350</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4166,13 +4168,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4180,16 +4182,16 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4197,16 +4199,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4214,16 +4216,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4231,16 +4233,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4248,16 +4250,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4265,16 +4267,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4282,16 +4284,16 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4299,16 +4301,16 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4316,16 +4318,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4333,16 +4335,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4350,16 +4352,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -4367,116 +4369,116 @@
     </row>
     <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4484,116 +4486,116 @@
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -4601,36 +4603,36 @@
     </row>
     <row r="35" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F35" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -4638,13 +4640,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -4655,10 +4657,10 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -4672,7 +4674,7 @@
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -4680,19 +4682,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s">
         <v>14</v>
@@ -4760,13 +4762,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4774,16 +4776,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4791,13 +4793,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4805,116 +4807,116 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4981,24 +4983,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5006,13 +5008,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5020,16 +5022,16 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5037,13 +5039,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5051,87 +5053,87 @@
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5139,16 +5141,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5156,19 +5158,19 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5176,16 +5178,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5193,19 +5195,19 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -5213,13 +5215,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5227,13 +5229,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5241,16 +5243,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5258,19 +5260,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5278,16 +5280,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5295,19 +5297,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5315,13 +5317,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5329,19 +5331,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5355,7 +5357,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -5369,7 +5371,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -5377,22 +5379,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
@@ -5400,22 +5402,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
         <v>14</v>
@@ -5483,13 +5485,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5497,16 +5499,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5514,13 +5516,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5528,36 +5530,36 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5572,8 +5574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5623,13 +5625,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -5640,24 +5642,24 @@
         <v>75</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5665,13 +5667,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5679,13 +5681,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5699,10 +5701,10 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5713,16 +5715,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
         <v>313</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" t="s">
-        <v>315</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -5736,10 +5738,10 @@
         <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5747,16 +5749,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -5764,16 +5766,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -5784,10 +5786,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -5795,13 +5797,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -5809,13 +5811,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -5829,7 +5831,7 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -5837,13 +5839,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -5857,10 +5859,10 @@
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -5874,7 +5876,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -5888,7 +5890,7 @@
         <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -5902,10 +5904,10 @@
         <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -5913,13 +5915,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -5927,16 +5929,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -5950,7 +5952,7 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -5964,13 +5966,13 @@
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5981,7 +5983,7 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -5995,13 +5997,13 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -6015,13 +6017,13 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -6032,16 +6034,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -6055,13 +6057,13 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -6072,16 +6074,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -6092,16 +6094,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -6115,13 +6117,13 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -6135,13 +6137,13 @@
         <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -6155,13 +6157,13 @@
         <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -6172,16 +6174,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -6195,10 +6197,10 @@
         <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -6209,13 +6211,13 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -6229,13 +6231,13 @@
         <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -6249,10 +6251,10 @@
         <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -6266,10 +6268,10 @@
         <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -6283,10 +6285,10 @@
         <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -6300,10 +6302,10 @@
         <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -6317,10 +6319,10 @@
         <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -6334,10 +6336,10 @@
         <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -6351,10 +6353,10 @@
         <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -6368,10 +6370,10 @@
         <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -6385,10 +6387,10 @@
         <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -6402,13 +6404,13 @@
         <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -6422,10 +6424,10 @@
         <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -6436,16 +6438,16 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -6459,7 +6461,7 @@
         <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -6473,7 +6475,7 @@
         <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -6487,7 +6489,7 @@
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -6501,10 +6503,10 @@
         <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -6518,10 +6520,10 @@
         <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -6535,10 +6537,10 @@
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -6552,10 +6554,10 @@
         <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -6569,10 +6571,10 @@
         <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -6586,7 +6588,7 @@
         <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -6600,7 +6602,7 @@
         <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -6614,7 +6616,7 @@
         <v>115</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -6628,10 +6630,10 @@
         <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -6645,7 +6647,7 @@
         <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -6659,10 +6661,10 @@
         <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6676,10 +6678,10 @@
         <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -6693,10 +6695,10 @@
         <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -6710,30 +6712,30 @@
         <v>122</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" s="9" t="b">
         <v>0</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -6741,16 +6743,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -6764,7 +6766,7 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -6773,18 +6775,18 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -6793,24 +6795,24 @@
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B71" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K71" t="s">
         <v>45</v>
@@ -6821,19 +6823,19 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B72" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K72" t="s">
         <v>19</v>
